--- a/conditionAB.xlsx
+++ b/conditionAB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee\Google Drive\UP\MyResearch\TaskProgramming\AB_pic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee\Documents\GitHub\AB_pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01209ED-86BB-478C-B35D-6F32C3B16F75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96A73F8-91D5-4DCF-9A61-BF785DFA7D78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="1485" windowWidth="14400" windowHeight="7365" xr2:uid="{4E428DA1-F14D-4CED-9014-3DBABD4864E5}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F161"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,21 +460,21 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <f>IF(MID(B2,1,3)="lag",MID(B2,4,1)*1,IF(MID(B2,1,3)="gap", 2,IF(MID(B2,1,3)="pri",4,99)))</f>
+        <f t="shared" ref="C2:C33" si="0">IF(MID(B2,1,3)="lag",MID(B2,4,1)*1,IF(MID(B2,1,3)="gap", 2,IF(MID(B2,1,3)="pri",4,99)))</f>
         <v>3</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <f>D2+C2</f>
+        <f t="shared" ref="E2:E33" si="1">D2+C2</f>
         <v>6</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -485,21 +485,21 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <f>IF(MID(B3,1,3)="lag",MID(B3,4,1)*1,IF(MID(B3,1,3)="gap", 2,IF(MID(B3,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <f>D3+C3</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G3">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -510,21 +510,21 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>IF(MID(B4,1,3)="lag",MID(B4,4,1)*1,IF(MID(B4,1,3)="gap", 2,IF(MID(B4,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <f>D4+C4</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G4">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -535,21 +535,21 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>IF(MID(B5,1,3)="lag",MID(B5,4,1)*1,IF(MID(B5,1,3)="gap", 2,IF(MID(B5,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <f>D5+C5</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -560,21 +560,21 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <f>IF(MID(B6,1,3)="lag",MID(B6,4,1)*1,IF(MID(B6,1,3)="gap", 2,IF(MID(B6,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <f>D6+C6</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G6">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -585,21 +585,21 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <f>IF(MID(B7,1,3)="lag",MID(B7,4,1)*1,IF(MID(B7,1,3)="gap", 2,IF(MID(B7,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7">
-        <f>D7+C7</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G7">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -610,21 +610,21 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <f>IF(MID(B8,1,3)="lag",MID(B8,4,1)*1,IF(MID(B8,1,3)="gap", 2,IF(MID(B8,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <f>D8+C8</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G8">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -635,21 +635,21 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>IF(MID(B9,1,3)="lag",MID(B9,4,1)*1,IF(MID(B9,1,3)="gap", 2,IF(MID(B9,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <f>D9+C9</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G9">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -660,21 +660,21 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <f>IF(MID(B10,1,3)="lag",MID(B10,4,1)*1,IF(MID(B10,1,3)="gap", 2,IF(MID(B10,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
-        <f>D10+C10</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G10">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,21 +685,21 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>IF(MID(B11,1,3)="lag",MID(B11,4,1)*1,IF(MID(B11,1,3)="gap", 2,IF(MID(B11,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <f>D11+C11</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -710,21 +710,21 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <f>IF(MID(B12,1,3)="lag",MID(B12,4,1)*1,IF(MID(B12,1,3)="gap", 2,IF(MID(B12,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12">
-        <f>D12+C12</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F12">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G12">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -735,21 +735,21 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>IF(MID(B13,1,3)="lag",MID(B13,4,1)*1,IF(MID(B13,1,3)="gap", 2,IF(MID(B13,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13">
-        <f>D13+C13</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G13">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -760,21 +760,21 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <f>IF(MID(B14,1,3)="lag",MID(B14,4,1)*1,IF(MID(B14,1,3)="gap", 2,IF(MID(B14,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14">
-        <f>D14+C14</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F14">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G14">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -785,21 +785,21 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>IF(MID(B15,1,3)="lag",MID(B15,4,1)*1,IF(MID(B15,1,3)="gap", 2,IF(MID(B15,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15">
-        <f>D15+C15</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F15">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G15">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -810,21 +810,21 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <f>IF(MID(B16,1,3)="lag",MID(B16,4,1)*1,IF(MID(B16,1,3)="gap", 2,IF(MID(B16,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <f>D16+C16</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G16">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -835,21 +835,21 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <f>IF(MID(B17,1,3)="lag",MID(B17,4,1)*1,IF(MID(B17,1,3)="gap", 2,IF(MID(B17,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17">
-        <f>D17+C17</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F17">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,21 +860,21 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <f>IF(MID(B18,1,3)="lag",MID(B18,4,1)*1,IF(MID(B18,1,3)="gap", 2,IF(MID(B18,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18">
-        <f>D18+C18</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F18">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G18">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -885,21 +885,21 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <f>IF(MID(B19,1,3)="lag",MID(B19,4,1)*1,IF(MID(B19,1,3)="gap", 2,IF(MID(B19,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <f>D19+C19</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F19">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G19">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,21 +910,21 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <f>IF(MID(B20,1,3)="lag",MID(B20,4,1)*1,IF(MID(B20,1,3)="gap", 2,IF(MID(B20,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <f>D20+C20</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F20">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G20">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -935,21 +935,21 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <f>IF(MID(B21,1,3)="lag",MID(B21,4,1)*1,IF(MID(B21,1,3)="gap", 2,IF(MID(B21,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21">
-        <f>D21+C21</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F21">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G21">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,21 +960,21 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <f>IF(MID(B22,1,3)="lag",MID(B22,4,1)*1,IF(MID(B22,1,3)="gap", 2,IF(MID(B22,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22">
-        <f>D22+C22</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F22">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G22">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,21 +985,21 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <f>IF(MID(B23,1,3)="lag",MID(B23,4,1)*1,IF(MID(B23,1,3)="gap", 2,IF(MID(B23,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23">
-        <f>D23+C23</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F23">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G23">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1010,21 +1010,21 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <f>IF(MID(B24,1,3)="lag",MID(B24,4,1)*1,IF(MID(B24,1,3)="gap", 2,IF(MID(B24,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <f>D24+C24</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F24">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G24">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1035,21 +1035,21 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <f>IF(MID(B25,1,3)="lag",MID(B25,4,1)*1,IF(MID(B25,1,3)="gap", 2,IF(MID(B25,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25">
-        <f>D25+C25</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F25">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G25">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1060,21 +1060,21 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <f>IF(MID(B26,1,3)="lag",MID(B26,4,1)*1,IF(MID(B26,1,3)="gap", 2,IF(MID(B26,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26">
-        <f>D26+C26</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F26">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G26">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,21 +1085,21 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <f>IF(MID(B27,1,3)="lag",MID(B27,4,1)*1,IF(MID(B27,1,3)="gap", 2,IF(MID(B27,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27">
-        <f>D27+C27</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F27">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G27">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1110,21 +1110,21 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <f>IF(MID(B28,1,3)="lag",MID(B28,4,1)*1,IF(MID(B28,1,3)="gap", 2,IF(MID(B28,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28">
-        <f>D28+C28</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F28">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G28">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1135,21 +1135,21 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <f>IF(MID(B29,1,3)="lag",MID(B29,4,1)*1,IF(MID(B29,1,3)="gap", 2,IF(MID(B29,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29">
-        <f>D29+C29</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F29">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G29">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1160,21 +1160,21 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <f>IF(MID(B30,1,3)="lag",MID(B30,4,1)*1,IF(MID(B30,1,3)="gap", 2,IF(MID(B30,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30">
-        <f>D30+C30</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F30">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G30">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,21 +1185,21 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <f>IF(MID(B31,1,3)="lag",MID(B31,4,1)*1,IF(MID(B31,1,3)="gap", 2,IF(MID(B31,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31">
-        <f>D31+C31</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F31">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G31">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1210,21 +1210,21 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <f>IF(MID(B32,1,3)="lag",MID(B32,4,1)*1,IF(MID(B32,1,3)="gap", 2,IF(MID(B32,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
       <c r="E32">
-        <f>D32+C32</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F32">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G32">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1235,21 +1235,21 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <f>IF(MID(B33,1,3)="lag",MID(B33,4,1)*1,IF(MID(B33,1,3)="gap", 2,IF(MID(B33,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33">
-        <f>D33+C33</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F33">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G33">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1260,21 +1260,21 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <f>IF(MID(B34,1,3)="lag",MID(B34,4,1)*1,IF(MID(B34,1,3)="gap", 2,IF(MID(B34,1,3)="pri",4,99)))</f>
+        <f t="shared" ref="C34:C65" si="2">IF(MID(B34,1,3)="lag",MID(B34,4,1)*1,IF(MID(B34,1,3)="gap", 2,IF(MID(B34,1,3)="pri",4,99)))</f>
         <v>2</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34">
-        <f>D34+C34</f>
+        <f t="shared" ref="E34:E65" si="3">D34+C34</f>
         <v>7</v>
       </c>
       <c r="F34">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G34">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1285,21 +1285,21 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <f>IF(MID(B35,1,3)="lag",MID(B35,4,1)*1,IF(MID(B35,1,3)="gap", 2,IF(MID(B35,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35">
-        <f>D35+C35</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F35">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G35">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1310,21 +1310,21 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <f>IF(MID(B36,1,3)="lag",MID(B36,4,1)*1,IF(MID(B36,1,3)="gap", 2,IF(MID(B36,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36">
-        <f>D36+C36</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F36">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G36">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,21 +1335,21 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <f>IF(MID(B37,1,3)="lag",MID(B37,4,1)*1,IF(MID(B37,1,3)="gap", 2,IF(MID(B37,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37">
-        <f>D37+C37</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F37">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G37">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1360,21 +1360,21 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <f>IF(MID(B38,1,3)="lag",MID(B38,4,1)*1,IF(MID(B38,1,3)="gap", 2,IF(MID(B38,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38">
-        <f>D38+C38</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F38">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G38">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1385,21 +1385,21 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <f>IF(MID(B39,1,3)="lag",MID(B39,4,1)*1,IF(MID(B39,1,3)="gap", 2,IF(MID(B39,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D39">
         <v>4</v>
       </c>
       <c r="E39">
-        <f>D39+C39</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F39">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G39">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1410,21 +1410,21 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <f>IF(MID(B40,1,3)="lag",MID(B40,4,1)*1,IF(MID(B40,1,3)="gap", 2,IF(MID(B40,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40">
-        <f>D40+C40</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F40">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G40">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1435,21 +1435,21 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <f>IF(MID(B41,1,3)="lag",MID(B41,4,1)*1,IF(MID(B41,1,3)="gap", 2,IF(MID(B41,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41">
-        <f>D41+C41</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F41">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G41">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1460,21 +1460,21 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <f>IF(MID(B42,1,3)="lag",MID(B42,4,1)*1,IF(MID(B42,1,3)="gap", 2,IF(MID(B42,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42">
-        <f>D42+C42</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F42">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G42">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1485,21 +1485,21 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <f>IF(MID(B43,1,3)="lag",MID(B43,4,1)*1,IF(MID(B43,1,3)="gap", 2,IF(MID(B43,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="E43">
-        <f>D43+C43</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F43">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G43">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1510,21 +1510,21 @@
         <v>5</v>
       </c>
       <c r="C44">
-        <f>IF(MID(B44,1,3)="lag",MID(B44,4,1)*1,IF(MID(B44,1,3)="gap", 2,IF(MID(B44,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44">
-        <f>D44+C44</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F44">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G44">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1535,21 +1535,21 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <f>IF(MID(B45,1,3)="lag",MID(B45,4,1)*1,IF(MID(B45,1,3)="gap", 2,IF(MID(B45,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45">
-        <f>D45+C45</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F45">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G45">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1560,21 +1560,21 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <f>IF(MID(B46,1,3)="lag",MID(B46,4,1)*1,IF(MID(B46,1,3)="gap", 2,IF(MID(B46,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46">
-        <f>D46+C46</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F46">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G46">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1585,21 +1585,21 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <f>IF(MID(B47,1,3)="lag",MID(B47,4,1)*1,IF(MID(B47,1,3)="gap", 2,IF(MID(B47,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D47">
         <v>5</v>
       </c>
       <c r="E47">
-        <f>D47+C47</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="F47">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G47">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1610,21 +1610,21 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <f>IF(MID(B48,1,3)="lag",MID(B48,4,1)*1,IF(MID(B48,1,3)="gap", 2,IF(MID(B48,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
       <c r="E48">
-        <f>D48+C48</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F48">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G48">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1635,21 +1635,21 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <f>IF(MID(B49,1,3)="lag",MID(B49,4,1)*1,IF(MID(B49,1,3)="gap", 2,IF(MID(B49,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D49">
         <v>5</v>
       </c>
       <c r="E49">
-        <f>D49+C49</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F49">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G49">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1660,21 +1660,21 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <f>IF(MID(B50,1,3)="lag",MID(B50,4,1)*1,IF(MID(B50,1,3)="gap", 2,IF(MID(B50,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50">
-        <f>D50+C50</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F50">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G50">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,21 +1685,21 @@
         <v>6</v>
       </c>
       <c r="C51">
-        <f>IF(MID(B51,1,3)="lag",MID(B51,4,1)*1,IF(MID(B51,1,3)="gap", 2,IF(MID(B51,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
       <c r="E51">
-        <f>D51+C51</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F51">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G51">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1710,21 +1710,21 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <f>IF(MID(B52,1,3)="lag",MID(B52,4,1)*1,IF(MID(B52,1,3)="gap", 2,IF(MID(B52,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <f>D52+C52</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F52">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G52">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1735,21 +1735,21 @@
         <v>8</v>
       </c>
       <c r="C53">
-        <f>IF(MID(B53,1,3)="lag",MID(B53,4,1)*1,IF(MID(B53,1,3)="gap", 2,IF(MID(B53,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53">
-        <f>D53+C53</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F53">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G53">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1760,21 +1760,21 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <f>IF(MID(B54,1,3)="lag",MID(B54,4,1)*1,IF(MID(B54,1,3)="gap", 2,IF(MID(B54,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54">
-        <f>D54+C54</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F54">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G54">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1785,21 +1785,21 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <f>IF(MID(B55,1,3)="lag",MID(B55,4,1)*1,IF(MID(B55,1,3)="gap", 2,IF(MID(B55,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55">
-        <f>D55+C55</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F55">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G55">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1810,21 +1810,21 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <f>IF(MID(B56,1,3)="lag",MID(B56,4,1)*1,IF(MID(B56,1,3)="gap", 2,IF(MID(B56,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
       <c r="E56">
-        <f>D56+C56</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F56">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G56">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1835,21 +1835,21 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <f>IF(MID(B57,1,3)="lag",MID(B57,4,1)*1,IF(MID(B57,1,3)="gap", 2,IF(MID(B57,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D57">
         <v>5</v>
       </c>
       <c r="E57">
-        <f>D57+C57</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F57">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G57">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1860,21 +1860,21 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <f>IF(MID(B58,1,3)="lag",MID(B58,4,1)*1,IF(MID(B58,1,3)="gap", 2,IF(MID(B58,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
       <c r="E58">
-        <f>D58+C58</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F58">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G58">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1885,21 +1885,21 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <f>IF(MID(B59,1,3)="lag",MID(B59,4,1)*1,IF(MID(B59,1,3)="gap", 2,IF(MID(B59,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59">
-        <f>D59+C59</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F59">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G59">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,21 +1910,21 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <f>IF(MID(B60,1,3)="lag",MID(B60,4,1)*1,IF(MID(B60,1,3)="gap", 2,IF(MID(B60,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60">
-        <f>D60+C60</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F60">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G60">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1935,21 +1935,21 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <f>IF(MID(B61,1,3)="lag",MID(B61,4,1)*1,IF(MID(B61,1,3)="gap", 2,IF(MID(B61,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D61">
         <v>5</v>
       </c>
       <c r="E61">
-        <f>D61+C61</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="F61">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G61">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1960,21 +1960,21 @@
         <v>6</v>
       </c>
       <c r="C62">
-        <f>IF(MID(B62,1,3)="lag",MID(B62,4,1)*1,IF(MID(B62,1,3)="gap", 2,IF(MID(B62,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62">
-        <f>D62+C62</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F62">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G62">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1985,21 +1985,21 @@
         <v>11</v>
       </c>
       <c r="C63">
-        <f>IF(MID(B63,1,3)="lag",MID(B63,4,1)*1,IF(MID(B63,1,3)="gap", 2,IF(MID(B63,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D63">
         <v>5</v>
       </c>
       <c r="E63">
-        <f>D63+C63</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F63">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G63">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,21 +2010,21 @@
         <v>9</v>
       </c>
       <c r="C64">
-        <f>IF(MID(B64,1,3)="lag",MID(B64,4,1)*1,IF(MID(B64,1,3)="gap", 2,IF(MID(B64,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64">
-        <f>D64+C64</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F64">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G64">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2035,21 +2035,21 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <f>IF(MID(B65,1,3)="lag",MID(B65,4,1)*1,IF(MID(B65,1,3)="gap", 2,IF(MID(B65,1,3)="pri",4,99)))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65">
-        <f>D65+C65</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F65">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G65">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2060,21 +2060,21 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <f>IF(MID(B66,1,3)="lag",MID(B66,4,1)*1,IF(MID(B66,1,3)="gap", 2,IF(MID(B66,1,3)="pri",4,99)))</f>
+        <f t="shared" ref="C66:C97" si="4">IF(MID(B66,1,3)="lag",MID(B66,4,1)*1,IF(MID(B66,1,3)="gap", 2,IF(MID(B66,1,3)="pri",4,99)))</f>
         <v>7</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66">
-        <f>D66+C66</f>
+        <f t="shared" ref="E66:E97" si="5">D66+C66</f>
         <v>10</v>
       </c>
       <c r="F66">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G66">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2085,21 +2085,21 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <f>IF(MID(B67,1,3)="lag",MID(B67,4,1)*1,IF(MID(B67,1,3)="gap", 2,IF(MID(B67,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D67">
         <v>4</v>
       </c>
       <c r="E67">
-        <f>D67+C67</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F67">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G67">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,21 +2110,21 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <f>IF(MID(B68,1,3)="lag",MID(B68,4,1)*1,IF(MID(B68,1,3)="gap", 2,IF(MID(B68,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D68">
         <v>5</v>
       </c>
       <c r="E68">
-        <f>D68+C68</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F68">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G68">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2135,21 +2135,21 @@
         <v>9</v>
       </c>
       <c r="C69">
-        <f>IF(MID(B69,1,3)="lag",MID(B69,4,1)*1,IF(MID(B69,1,3)="gap", 2,IF(MID(B69,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D69">
         <v>4</v>
       </c>
       <c r="E69">
-        <f>D69+C69</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="F69">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G69">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2160,21 +2160,21 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <f>IF(MID(B70,1,3)="lag",MID(B70,4,1)*1,IF(MID(B70,1,3)="gap", 2,IF(MID(B70,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70">
-        <f>D70+C70</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F70">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G70">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,21 +2185,21 @@
         <v>7</v>
       </c>
       <c r="C71">
-        <f>IF(MID(B71,1,3)="lag",MID(B71,4,1)*1,IF(MID(B71,1,3)="gap", 2,IF(MID(B71,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D71">
         <v>5</v>
       </c>
       <c r="E71">
-        <f>D71+C71</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F71">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G71">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2210,21 +2210,21 @@
         <v>5</v>
       </c>
       <c r="C72">
-        <f>IF(MID(B72,1,3)="lag",MID(B72,4,1)*1,IF(MID(B72,1,3)="gap", 2,IF(MID(B72,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
       <c r="E72">
-        <f>D72+C72</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F72">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G72">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2235,21 +2235,21 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <f>IF(MID(B73,1,3)="lag",MID(B73,4,1)*1,IF(MID(B73,1,3)="gap", 2,IF(MID(B73,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D73">
         <v>4</v>
       </c>
       <c r="E73">
-        <f>D73+C73</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F73">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G73">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2260,21 +2260,21 @@
         <v>5</v>
       </c>
       <c r="C74">
-        <f>IF(MID(B74,1,3)="lag",MID(B74,4,1)*1,IF(MID(B74,1,3)="gap", 2,IF(MID(B74,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
       <c r="E74">
-        <f>D74+C74</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F74">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G74">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2285,21 +2285,21 @@
         <v>7</v>
       </c>
       <c r="C75">
-        <f>IF(MID(B75,1,3)="lag",MID(B75,4,1)*1,IF(MID(B75,1,3)="gap", 2,IF(MID(B75,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75">
-        <f>D75+C75</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F75">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G75">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2310,21 +2310,21 @@
         <v>8</v>
       </c>
       <c r="C76">
-        <f>IF(MID(B76,1,3)="lag",MID(B76,4,1)*1,IF(MID(B76,1,3)="gap", 2,IF(MID(B76,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D76">
         <v>5</v>
       </c>
       <c r="E76">
-        <f>D76+C76</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F76">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G76">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2335,21 +2335,21 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <f>IF(MID(B77,1,3)="lag",MID(B77,4,1)*1,IF(MID(B77,1,3)="gap", 2,IF(MID(B77,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
       <c r="E77">
-        <f>D77+C77</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F77">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G77">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2360,21 +2360,21 @@
         <v>8</v>
       </c>
       <c r="C78">
-        <f>IF(MID(B78,1,3)="lag",MID(B78,4,1)*1,IF(MID(B78,1,3)="gap", 2,IF(MID(B78,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78">
-        <f>D78+C78</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F78">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G78">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2385,21 +2385,21 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <f>IF(MID(B79,1,3)="lag",MID(B79,4,1)*1,IF(MID(B79,1,3)="gap", 2,IF(MID(B79,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D79">
         <v>4</v>
       </c>
       <c r="E79">
-        <f>D79+C79</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F79">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G79">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,21 +2410,21 @@
         <v>5</v>
       </c>
       <c r="C80">
-        <f>IF(MID(B80,1,3)="lag",MID(B80,4,1)*1,IF(MID(B80,1,3)="gap", 2,IF(MID(B80,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D80">
         <v>5</v>
       </c>
       <c r="E80">
-        <f>D80+C80</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F80">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G80">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2435,21 +2435,21 @@
         <v>6</v>
       </c>
       <c r="C81">
-        <f>IF(MID(B81,1,3)="lag",MID(B81,4,1)*1,IF(MID(B81,1,3)="gap", 2,IF(MID(B81,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D81">
         <v>4</v>
       </c>
       <c r="E81">
-        <f>D81+C81</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F81">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G81">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2460,21 +2460,21 @@
         <v>5</v>
       </c>
       <c r="C82">
-        <f>IF(MID(B82,1,3)="lag",MID(B82,4,1)*1,IF(MID(B82,1,3)="gap", 2,IF(MID(B82,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
       <c r="E82">
-        <f>D82+C82</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F82">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G82">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2485,21 +2485,21 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <f>IF(MID(B83,1,3)="lag",MID(B83,4,1)*1,IF(MID(B83,1,3)="gap", 2,IF(MID(B83,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D83">
         <v>5</v>
       </c>
       <c r="E83">
-        <f>D83+C83</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F83">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G83">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2510,21 +2510,21 @@
         <v>8</v>
       </c>
       <c r="C84">
-        <f>IF(MID(B84,1,3)="lag",MID(B84,4,1)*1,IF(MID(B84,1,3)="gap", 2,IF(MID(B84,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D84">
         <v>5</v>
       </c>
       <c r="E84">
-        <f>D84+C84</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F84">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G84">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2535,21 +2535,21 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <f>IF(MID(B85,1,3)="lag",MID(B85,4,1)*1,IF(MID(B85,1,3)="gap", 2,IF(MID(B85,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D85">
         <v>5</v>
       </c>
       <c r="E85">
-        <f>D85+C85</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F85">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G85">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2560,21 +2560,21 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <f>IF(MID(B86,1,3)="lag",MID(B86,4,1)*1,IF(MID(B86,1,3)="gap", 2,IF(MID(B86,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D86">
         <v>5</v>
       </c>
       <c r="E86">
-        <f>D86+C86</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F86">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G86">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2585,21 +2585,21 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <f>IF(MID(B87,1,3)="lag",MID(B87,4,1)*1,IF(MID(B87,1,3)="gap", 2,IF(MID(B87,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
       <c r="E87">
-        <f>D87+C87</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F87">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G87">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2610,21 +2610,21 @@
         <v>8</v>
       </c>
       <c r="C88">
-        <f>IF(MID(B88,1,3)="lag",MID(B88,4,1)*1,IF(MID(B88,1,3)="gap", 2,IF(MID(B88,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D88">
         <v>4</v>
       </c>
       <c r="E88">
-        <f>D88+C88</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F88">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G88">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2635,21 +2635,21 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <f>IF(MID(B89,1,3)="lag",MID(B89,4,1)*1,IF(MID(B89,1,3)="gap", 2,IF(MID(B89,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89">
-        <f>D89+C89</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F89">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G89">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2660,21 +2660,21 @@
         <v>11</v>
       </c>
       <c r="C90">
-        <f>IF(MID(B90,1,3)="lag",MID(B90,4,1)*1,IF(MID(B90,1,3)="gap", 2,IF(MID(B90,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D90">
         <v>4</v>
       </c>
       <c r="E90">
-        <f>D90+C90</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F90">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G90">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2685,21 +2685,21 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <f>IF(MID(B91,1,3)="lag",MID(B91,4,1)*1,IF(MID(B91,1,3)="gap", 2,IF(MID(B91,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D91">
         <v>5</v>
       </c>
       <c r="E91">
-        <f>D91+C91</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F91">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G91">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2710,21 +2710,21 @@
         <v>6</v>
       </c>
       <c r="C92">
-        <f>IF(MID(B92,1,3)="lag",MID(B92,4,1)*1,IF(MID(B92,1,3)="gap", 2,IF(MID(B92,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D92">
         <v>5</v>
       </c>
       <c r="E92">
-        <f>D92+C92</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F92">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G92">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,21 +2735,21 @@
         <v>6</v>
       </c>
       <c r="C93">
-        <f>IF(MID(B93,1,3)="lag",MID(B93,4,1)*1,IF(MID(B93,1,3)="gap", 2,IF(MID(B93,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D93">
         <v>3</v>
       </c>
       <c r="E93">
-        <f>D93+C93</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="F93">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G93">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2760,21 +2760,21 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <f>IF(MID(B94,1,3)="lag",MID(B94,4,1)*1,IF(MID(B94,1,3)="gap", 2,IF(MID(B94,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94">
-        <f>D94+C94</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F94">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G94">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2785,21 +2785,21 @@
         <v>6</v>
       </c>
       <c r="C95">
-        <f>IF(MID(B95,1,3)="lag",MID(B95,4,1)*1,IF(MID(B95,1,3)="gap", 2,IF(MID(B95,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D95">
         <v>5</v>
       </c>
       <c r="E95">
-        <f>D95+C95</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F95">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G95">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2810,21 +2810,21 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <f>IF(MID(B96,1,3)="lag",MID(B96,4,1)*1,IF(MID(B96,1,3)="gap", 2,IF(MID(B96,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D96">
         <v>5</v>
       </c>
       <c r="E96">
-        <f>D96+C96</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F96">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G96">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,21 +2835,21 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <f>IF(MID(B97,1,3)="lag",MID(B97,4,1)*1,IF(MID(B97,1,3)="gap", 2,IF(MID(B97,1,3)="pri",4,99)))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D97">
         <v>3</v>
       </c>
       <c r="E97">
-        <f>D97+C97</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F97">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G97">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2860,21 +2860,21 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <f>IF(MID(B98,1,3)="lag",MID(B98,4,1)*1,IF(MID(B98,1,3)="gap", 2,IF(MID(B98,1,3)="pri",4,99)))</f>
+        <f t="shared" ref="C98:C129" si="6">IF(MID(B98,1,3)="lag",MID(B98,4,1)*1,IF(MID(B98,1,3)="gap", 2,IF(MID(B98,1,3)="pri",4,99)))</f>
         <v>1</v>
       </c>
       <c r="D98">
         <v>5</v>
       </c>
       <c r="E98">
-        <f>D98+C98</f>
+        <f t="shared" ref="E98:E129" si="7">D98+C98</f>
         <v>6</v>
       </c>
       <c r="F98">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G98">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2885,21 +2885,21 @@
         <v>6</v>
       </c>
       <c r="C99">
-        <f>IF(MID(B99,1,3)="lag",MID(B99,4,1)*1,IF(MID(B99,1,3)="gap", 2,IF(MID(B99,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D99">
         <v>4</v>
       </c>
       <c r="E99">
-        <f>D99+C99</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F99">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G99">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2910,21 +2910,21 @@
         <v>5</v>
       </c>
       <c r="C100">
-        <f>IF(MID(B100,1,3)="lag",MID(B100,4,1)*1,IF(MID(B100,1,3)="gap", 2,IF(MID(B100,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D100">
         <v>4</v>
       </c>
       <c r="E100">
-        <f>D100+C100</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="F100">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G100">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2935,21 +2935,21 @@
         <v>5</v>
       </c>
       <c r="C101">
-        <f>IF(MID(B101,1,3)="lag",MID(B101,4,1)*1,IF(MID(B101,1,3)="gap", 2,IF(MID(B101,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D101">
         <v>3</v>
       </c>
       <c r="E101">
-        <f>D101+C101</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="F101">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G101">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2960,21 +2960,21 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <f>IF(MID(B102,1,3)="lag",MID(B102,4,1)*1,IF(MID(B102,1,3)="gap", 2,IF(MID(B102,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D102">
         <v>5</v>
       </c>
       <c r="E102">
-        <f>D102+C102</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="F102">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G102">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2985,21 +2985,21 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <f>IF(MID(B103,1,3)="lag",MID(B103,4,1)*1,IF(MID(B103,1,3)="gap", 2,IF(MID(B103,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103">
-        <f>D103+C103</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="F103">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G103">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3010,21 +3010,21 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <f>IF(MID(B104,1,3)="lag",MID(B104,4,1)*1,IF(MID(B104,1,3)="gap", 2,IF(MID(B104,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D104">
         <v>4</v>
       </c>
       <c r="E104">
-        <f>D104+C104</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="F104">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G104">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3035,21 +3035,21 @@
         <v>6</v>
       </c>
       <c r="C105">
-        <f>IF(MID(B105,1,3)="lag",MID(B105,4,1)*1,IF(MID(B105,1,3)="gap", 2,IF(MID(B105,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D105">
         <v>4</v>
       </c>
       <c r="E105">
-        <f>D105+C105</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F105">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G105">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3060,21 +3060,21 @@
         <v>7</v>
       </c>
       <c r="C106">
-        <f>IF(MID(B106,1,3)="lag",MID(B106,4,1)*1,IF(MID(B106,1,3)="gap", 2,IF(MID(B106,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D106">
         <v>3</v>
       </c>
       <c r="E106">
-        <f>D106+C106</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="F106">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G106">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3085,21 +3085,21 @@
         <v>11</v>
       </c>
       <c r="C107">
-        <f>IF(MID(B107,1,3)="lag",MID(B107,4,1)*1,IF(MID(B107,1,3)="gap", 2,IF(MID(B107,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D107">
         <v>3</v>
       </c>
       <c r="E107">
-        <f>D107+C107</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F107">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G107">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3110,21 +3110,21 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <f>IF(MID(B108,1,3)="lag",MID(B108,4,1)*1,IF(MID(B108,1,3)="gap", 2,IF(MID(B108,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D108">
         <v>3</v>
       </c>
       <c r="E108">
-        <f>D108+C108</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F108">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G108">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3135,21 +3135,21 @@
         <v>6</v>
       </c>
       <c r="C109">
-        <f>IF(MID(B109,1,3)="lag",MID(B109,4,1)*1,IF(MID(B109,1,3)="gap", 2,IF(MID(B109,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D109">
         <v>4</v>
       </c>
       <c r="E109">
-        <f>D109+C109</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F109">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G109">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3160,21 +3160,21 @@
         <v>11</v>
       </c>
       <c r="C110">
-        <f>IF(MID(B110,1,3)="lag",MID(B110,4,1)*1,IF(MID(B110,1,3)="gap", 2,IF(MID(B110,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110">
-        <f>D110+C110</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F110">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G110">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3185,21 +3185,21 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <f>IF(MID(B111,1,3)="lag",MID(B111,4,1)*1,IF(MID(B111,1,3)="gap", 2,IF(MID(B111,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D111">
         <v>5</v>
       </c>
       <c r="E111">
-        <f>D111+C111</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F111">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G111">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3210,21 +3210,21 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <f>IF(MID(B112,1,3)="lag",MID(B112,4,1)*1,IF(MID(B112,1,3)="gap", 2,IF(MID(B112,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112">
-        <f>D112+C112</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="F112">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G112">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3235,21 +3235,21 @@
         <v>7</v>
       </c>
       <c r="C113">
-        <f>IF(MID(B113,1,3)="lag",MID(B113,4,1)*1,IF(MID(B113,1,3)="gap", 2,IF(MID(B113,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D113">
         <v>3</v>
       </c>
       <c r="E113">
-        <f>D113+C113</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="F113">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G113">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3260,21 +3260,21 @@
         <v>5</v>
       </c>
       <c r="C114">
-        <f>IF(MID(B114,1,3)="lag",MID(B114,4,1)*1,IF(MID(B114,1,3)="gap", 2,IF(MID(B114,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D114">
         <v>3</v>
       </c>
       <c r="E114">
-        <f>D114+C114</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="F114">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G114">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3285,21 +3285,21 @@
         <v>6</v>
       </c>
       <c r="C115">
-        <f>IF(MID(B115,1,3)="lag",MID(B115,4,1)*1,IF(MID(B115,1,3)="gap", 2,IF(MID(B115,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D115">
         <v>3</v>
       </c>
       <c r="E115">
-        <f>D115+C115</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F115">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G115">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3310,21 +3310,21 @@
         <v>5</v>
       </c>
       <c r="C116">
-        <f>IF(MID(B116,1,3)="lag",MID(B116,4,1)*1,IF(MID(B116,1,3)="gap", 2,IF(MID(B116,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D116">
         <v>5</v>
       </c>
       <c r="E116">
-        <f>D116+C116</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="F116">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G116">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3335,21 +3335,21 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <f>IF(MID(B117,1,3)="lag",MID(B117,4,1)*1,IF(MID(B117,1,3)="gap", 2,IF(MID(B117,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D117">
         <v>4</v>
       </c>
       <c r="E117">
-        <f>D117+C117</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="F117">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G117">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3360,21 +3360,21 @@
         <v>8</v>
       </c>
       <c r="C118">
-        <f>IF(MID(B118,1,3)="lag",MID(B118,4,1)*1,IF(MID(B118,1,3)="gap", 2,IF(MID(B118,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118">
-        <f>D118+C118</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="F118">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G118">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3385,21 +3385,21 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <f>IF(MID(B119,1,3)="lag",MID(B119,4,1)*1,IF(MID(B119,1,3)="gap", 2,IF(MID(B119,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D119">
         <v>3</v>
       </c>
       <c r="E119">
-        <f>D119+C119</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F119">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G119">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3410,21 +3410,21 @@
         <v>7</v>
       </c>
       <c r="C120">
-        <f>IF(MID(B120,1,3)="lag",MID(B120,4,1)*1,IF(MID(B120,1,3)="gap", 2,IF(MID(B120,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D120">
         <v>5</v>
       </c>
       <c r="E120">
-        <f>D120+C120</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="F120">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G120">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3435,21 +3435,21 @@
         <v>7</v>
       </c>
       <c r="C121">
-        <f>IF(MID(B121,1,3)="lag",MID(B121,4,1)*1,IF(MID(B121,1,3)="gap", 2,IF(MID(B121,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D121">
         <v>4</v>
       </c>
       <c r="E121">
-        <f>D121+C121</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="F121">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G121">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3460,21 +3460,21 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <f>IF(MID(B122,1,3)="lag",MID(B122,4,1)*1,IF(MID(B122,1,3)="gap", 2,IF(MID(B122,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D122">
         <v>3</v>
       </c>
       <c r="E122">
-        <f>D122+C122</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="F122">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G122">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3485,21 +3485,21 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <f>IF(MID(B123,1,3)="lag",MID(B123,4,1)*1,IF(MID(B123,1,3)="gap", 2,IF(MID(B123,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D123">
         <v>3</v>
       </c>
       <c r="E123">
-        <f>D123+C123</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F123">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G123">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3510,21 +3510,21 @@
         <v>5</v>
       </c>
       <c r="C124">
-        <f>IF(MID(B124,1,3)="lag",MID(B124,4,1)*1,IF(MID(B124,1,3)="gap", 2,IF(MID(B124,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D124">
         <v>3</v>
       </c>
       <c r="E124">
-        <f>D124+C124</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="F124">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G124">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3535,21 +3535,21 @@
         <v>7</v>
       </c>
       <c r="C125">
-        <f>IF(MID(B125,1,3)="lag",MID(B125,4,1)*1,IF(MID(B125,1,3)="gap", 2,IF(MID(B125,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D125">
         <v>4</v>
       </c>
       <c r="E125">
-        <f>D125+C125</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="F125">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G125">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3560,21 +3560,21 @@
         <v>11</v>
       </c>
       <c r="C126">
-        <f>IF(MID(B126,1,3)="lag",MID(B126,4,1)*1,IF(MID(B126,1,3)="gap", 2,IF(MID(B126,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D126">
         <v>4</v>
       </c>
       <c r="E126">
-        <f>D126+C126</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="F126">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G126">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3585,21 +3585,21 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <f>IF(MID(B127,1,3)="lag",MID(B127,4,1)*1,IF(MID(B127,1,3)="gap", 2,IF(MID(B127,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D127">
         <v>4</v>
       </c>
       <c r="E127">
-        <f>D127+C127</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="F127">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G127">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3610,21 +3610,21 @@
         <v>8</v>
       </c>
       <c r="C128">
-        <f>IF(MID(B128,1,3)="lag",MID(B128,4,1)*1,IF(MID(B128,1,3)="gap", 2,IF(MID(B128,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D128">
         <v>5</v>
       </c>
       <c r="E128">
-        <f>D128+C128</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="F128">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G128">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3635,21 +3635,21 @@
         <v>5</v>
       </c>
       <c r="C129">
-        <f>IF(MID(B129,1,3)="lag",MID(B129,4,1)*1,IF(MID(B129,1,3)="gap", 2,IF(MID(B129,1,3)="pri",4,99)))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D129">
         <v>5</v>
       </c>
       <c r="E129">
-        <f>D129+C129</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="F129">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G129">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3660,21 +3660,21 @@
         <v>5</v>
       </c>
       <c r="C130">
-        <f>IF(MID(B130,1,3)="lag",MID(B130,4,1)*1,IF(MID(B130,1,3)="gap", 2,IF(MID(B130,1,3)="pri",4,99)))</f>
+        <f t="shared" ref="C130:C161" si="8">IF(MID(B130,1,3)="lag",MID(B130,4,1)*1,IF(MID(B130,1,3)="gap", 2,IF(MID(B130,1,3)="pri",4,99)))</f>
         <v>4</v>
       </c>
       <c r="D130">
         <v>3</v>
       </c>
       <c r="E130">
-        <f>D130+C130</f>
+        <f t="shared" ref="E130:E161" si="9">D130+C130</f>
         <v>7</v>
       </c>
       <c r="F130">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G130">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3685,21 +3685,21 @@
         <v>6</v>
       </c>
       <c r="C131">
-        <f>IF(MID(B131,1,3)="lag",MID(B131,4,1)*1,IF(MID(B131,1,3)="gap", 2,IF(MID(B131,1,3)="pri",4,99)))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D131">
         <v>4</v>
       </c>
       <c r="E131">
-        <f>D131+C131</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="F131">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G131">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3710,21 +3710,21 @@
         <v>9</v>
       </c>
       <c r="C132">
-        <f>IF(MID(B132,1,3)="lag",MID(B132,4,1)*1,IF(MID(B132,1,3)="gap", 2,IF(MID(B132,1,3)="pri",4,99)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D132">
         <v>4</v>
       </c>
       <c r="E132">
-        <f>D132+C132</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="F132">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G132">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3735,21 +3735,21 @@
         <v>8</v>
       </c>
       <c r="C133">
-        <f>IF(MID(B133,1,3)="lag",MID(B133,4,1)*1,IF(MID(B133,1,3)="gap", 2,IF(MID(B133,1,3)="pri",4,99)))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="D133">
         <v>3</v>
       </c>
       <c r="E133">
-        <f>D133+C133</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="F133">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G133">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3760,21 +3760,21 @@
         <v>7</v>
       </c>
       <c r="C134">
-        <f>IF(MID(B134,1,3)="lag",MID(B134,4,1)*1,IF(MID(B134,1,3)="gap", 2,IF(MID(B134,1,3)="pri",4,99)))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D134">
         <v>4</v>
       </c>
       <c r="E134">
-        <f>D134+C134</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="F134">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G134">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3785,21 +3785,21 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <f>IF(MID(B135,1,3)="lag",MID(B135,4,1)*1,IF(MID(B135,1,3)="gap", 2,IF(MID(B135,1,3)="pri",4,99)))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
       <c r="E135">
-        <f>D135+C135</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="F135">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G135">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3810,21 +3810,21 @@
         <v>10</v>
       </c>
       <c r="C136">
-        <f>IF(MID(B136,1,3)="lag",MID(B136,4,1)*1,IF(MID(B136,1,3)="gap", 2,IF(MID(B136,1,3)="pri",4,99)))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="D136">
         <v>4</v>
       </c>
       <c r="E136">
-        <f>D136+C136</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="F136">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G136">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3835,21 +3835,21 @@
         <v>8</v>
       </c>
       <c r="C137">
-        <f>IF(MID(B137,1,3)="lag",MID(B137,4,1)*1,IF(MID(B137,1,3)="gap", 2,IF(MID(B137,1,3)="pri",4,99)))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="D137">
         <v>5</v>
       </c>
       <c r="E137">
-        <f>D137+C137</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="F137">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G137">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3860,21 +3860,21 @@
         <v>9</v>
       </c>
       <c r="C138">
-        <f>IF(MID(B138,1,3)="lag",MID(B138,4,1)*1,IF(MID(B138,1,3)="gap", 2,IF(MID(B138,1,3)="pri",4,99)))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D138">
         <v>4</v>
       </c>
       <c r="E138">
-        <f>D138+C138</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="F138">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G138">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3885,21 +3885,21 @@
         <v>8</v>
       </c>
       <c r="C139">
-        <f>IF(MID(B139,1,3)="lag",MID(B139,4,1)*1,IF(MID(B139,1,3)="gap", 2,IF(MID(B139,1,3)="pri",4,99)))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="D139">
         <v>3</v>
       </c>
       <c r="E139">
-        <f>D139+C139</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="F139">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G139">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3910,21 +3910,21 @@
         <v>7</v>
       </c>
       <c r="C140">
-        <f>IF(MID(B140,1,3)="lag",MID(B140,4,1)*1,IF(MID(B140,1,3)="gap", 2,IF(MID(B140,1,3)="pri",4,99)))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D140">
         <v>5</v>
       </c>
       <c r="E140">
-        <f>D140+C140</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="F140">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G140">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3935,21 +3935,21 @@
         <v>8</v>
       </c>
       <c r="C141">
-        <f>IF(MID(B141,1,3)="lag",MID(B141,4,1)*1,IF(MID(B141,1,3)="gap", 2,IF(MID(B141,1,3)="pri",4,99)))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="D141">
         <v>3</v>
       </c>
       <c r="E141">
-        <f>D141+C141</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="F141">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G141">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3958,558 +3958,558 @@
         <v>AB</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" ref="B142:G142" si="0">B2</f>
+        <f t="shared" ref="B142:E142" si="10">B2</f>
         <v>lag3</v>
       </c>
       <c r="C142">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D142">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E142">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F142">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G142">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <f t="shared" ref="A143:G143" si="1">A3</f>
+        <f t="shared" ref="A143:E143" si="11">A3</f>
         <v>AB</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>lag5</v>
       </c>
       <c r="C143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="D143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="E143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="F143">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G143">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
-        <f t="shared" ref="A144:G144" si="2">A4</f>
+        <f t="shared" ref="A144:E144" si="12">A4</f>
         <v>AB</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>lag4</v>
       </c>
       <c r="C144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F144">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G144">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
-        <f t="shared" ref="A145:G145" si="3">A5</f>
+        <f t="shared" ref="A145:E145" si="13">A5</f>
         <v>AB</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>lag4</v>
       </c>
       <c r="C145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="E145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="F145">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G145">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
-        <f t="shared" ref="A146:G146" si="4">A6</f>
+        <f t="shared" ref="A146:E146" si="14">A6</f>
         <v>AB</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>lag1</v>
       </c>
       <c r="C146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="D146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="F146">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G146">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
-        <f t="shared" ref="A147:G147" si="5">A7</f>
+        <f t="shared" ref="A147:E147" si="15">A7</f>
         <v>AB</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>lag5</v>
       </c>
       <c r="C147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="E147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="F147">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G147">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f t="shared" ref="A148:G148" si="6">A8</f>
+        <f t="shared" ref="A148:E148" si="16">A8</f>
         <v>AB</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>lag3</v>
       </c>
       <c r="C148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="D148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="E148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="F148">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G148">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <f t="shared" ref="A149:G149" si="7">A9</f>
+        <f t="shared" ref="A149:E149" si="17">A9</f>
         <v>AB</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>lag4</v>
       </c>
       <c r="C149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="D149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="E149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="F149">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G149">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
-        <f t="shared" ref="A150:G150" si="8">A10</f>
+        <f t="shared" ref="A150:E150" si="18">A10</f>
         <v>AB</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>lag6</v>
       </c>
       <c r="C150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="D150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="E150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="F150">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G150">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f t="shared" ref="A151:G151" si="9">A11</f>
+        <f t="shared" ref="A151:E151" si="19">A11</f>
         <v>AB</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>lag7</v>
       </c>
       <c r="C151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="D151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="E151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="F151">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G151">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f t="shared" ref="A152:G152" si="10">A12</f>
+        <f t="shared" ref="A152:E152" si="20">A12</f>
         <v>AB</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>lag1</v>
       </c>
       <c r="C152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="D152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="E152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="F152">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G152">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
-        <f t="shared" ref="A153:G153" si="11">A13</f>
+        <f t="shared" ref="A153:E153" si="21">A13</f>
         <v>AB</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>lag4</v>
       </c>
       <c r="C153">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="D153">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="E153">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="F153">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G153">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
-        <f t="shared" ref="A154:G154" si="12">A14</f>
+        <f t="shared" ref="A154:E154" si="22">A14</f>
         <v>AB</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>lag1</v>
       </c>
       <c r="C154">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D154">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="E154">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="F154">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G154">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f t="shared" ref="A155:G155" si="13">A15</f>
+        <f t="shared" ref="A155:E155" si="23">A15</f>
         <v>AB</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>lag2</v>
       </c>
       <c r="C155">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="E155">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="F155">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G155">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
-        <f t="shared" ref="A156:G156" si="14">A16</f>
+        <f t="shared" ref="A156:E156" si="24">A16</f>
         <v>AB</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>lag2</v>
       </c>
       <c r="C156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="E156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="F156">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G156">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
-        <f t="shared" ref="A157:G157" si="15">A17</f>
+        <f t="shared" ref="A157:E157" si="25">A17</f>
         <v>AB</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>lag1</v>
       </c>
       <c r="C157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="D157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="E157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="F157">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G157">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
-        <f t="shared" ref="A158:G158" si="16">A18</f>
+        <f t="shared" ref="A158:E158" si="26">A18</f>
         <v>AB</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>lag7</v>
       </c>
       <c r="C158">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="D158">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="E158">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="F158">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G158">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
-        <f t="shared" ref="A159:G159" si="17">A19</f>
+        <f t="shared" ref="A159:E159" si="27">A19</f>
         <v>AB</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>lag5</v>
       </c>
       <c r="C159">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="D159">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="E159">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="F159">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G159">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
-        <f t="shared" ref="A160:G160" si="18">A20</f>
+        <f t="shared" ref="A160:E160" si="28">A20</f>
         <v>AB</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>lag7</v>
       </c>
       <c r="C160">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="D160">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="E160">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="F160">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G160">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
-        <f t="shared" ref="A161:G161" si="19">A21</f>
+        <f t="shared" ref="A161:E161" si="29">A21</f>
         <v>AB</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>lag7</v>
       </c>
       <c r="C161">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
       <c r="D161">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="E161">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="F161">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G161">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>

--- a/conditionAB.xlsx
+++ b/conditionAB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee\Documents\GitHub\AB_pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB16F42E-AF9F-41EA-9F56-8E6B4E70FDCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D87FF9-A322-4CD5-98FF-C039B59AD450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="1485" windowWidth="14400" windowHeight="7365" xr2:uid="{4E428DA1-F14D-4CED-9014-3DBABD4864E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>stimLen</t>
   </si>
@@ -42,25 +42,7 @@
     <t>cndTyp</t>
   </si>
   <si>
-    <t>lag4</t>
-  </si>
-  <si>
-    <t>lag2</t>
-  </si>
-  <si>
-    <t>lag7</t>
-  </si>
-  <si>
     <t>lag6</t>
-  </si>
-  <si>
-    <t>lag1</t>
-  </si>
-  <si>
-    <t>lag5</t>
-  </si>
-  <si>
-    <t>lag3</t>
   </si>
   <si>
     <t>lag</t>
@@ -424,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540AB904-93F0-4682-B6FA-4652E04E7959}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,13 +422,13 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -455,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -463,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f>IF(MID(B2,1,3)="lag",MID(B2,4,1)*1,IF(MID(B2,1,3)="gap", 2,IF(MID(B2,1,3)="pri",4,99)))</f>
@@ -483,370 +465,6 @@
         <v>0.05</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <f>IF(MID(B3,1,3)="lag",MID(B3,4,1)*1,IF(MID(B3,1,3)="gap", 2,IF(MID(B3,1,3)="pri",4,99)))</f>
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <f>D3+C3</f>
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>0.2</v>
-      </c>
-      <c r="G3">
-        <v>0.05</v>
-      </c>
-      <c r="H3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <f>IF(MID(B4,1,3)="lag",MID(B4,4,1)*1,IF(MID(B4,1,3)="gap", 2,IF(MID(B4,1,3)="pri",4,99)))</f>
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <f>D4+C4</f>
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>0.2</v>
-      </c>
-      <c r="G4">
-        <v>0.05</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <f>IF(MID(B5,1,3)="lag",MID(B5,4,1)*1,IF(MID(B5,1,3)="gap", 2,IF(MID(B5,1,3)="pri",4,99)))</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <f>D5+C5</f>
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>0.2</v>
-      </c>
-      <c r="G5">
-        <v>0.05</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <f>IF(MID(B6,1,3)="lag",MID(B6,4,1)*1,IF(MID(B6,1,3)="gap", 2,IF(MID(B6,1,3)="pri",4,99)))</f>
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <f>D6+C6</f>
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>0.2</v>
-      </c>
-      <c r="G6">
-        <v>0.05</v>
-      </c>
-      <c r="H6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <f>IF(MID(B7,1,3)="lag",MID(B7,4,1)*1,IF(MID(B7,1,3)="gap", 2,IF(MID(B7,1,3)="pri",4,99)))</f>
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <f>D7+C7</f>
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>0.2</v>
-      </c>
-      <c r="G7">
-        <v>0.05</v>
-      </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <f>IF(MID(B8,1,3)="lag",MID(B8,4,1)*1,IF(MID(B8,1,3)="gap", 2,IF(MID(B8,1,3)="pri",4,99)))</f>
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <f>D8+C8</f>
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>0.2</v>
-      </c>
-      <c r="G8">
-        <v>0.05</v>
-      </c>
-      <c r="H8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <f>IF(MID(B9,1,3)="lag",MID(B9,4,1)*1,IF(MID(B9,1,3)="gap", 2,IF(MID(B9,1,3)="pri",4,99)))</f>
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <f>D9+C9</f>
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>0.2</v>
-      </c>
-      <c r="G9">
-        <v>0.05</v>
-      </c>
-      <c r="H9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <f>IF(MID(B10,1,3)="lag",MID(B10,4,1)*1,IF(MID(B10,1,3)="gap", 2,IF(MID(B10,1,3)="pri",4,99)))</f>
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <f>D10+C10</f>
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>0.2</v>
-      </c>
-      <c r="G10">
-        <v>0.05</v>
-      </c>
-      <c r="H10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <f>IF(MID(B11,1,3)="lag",MID(B11,4,1)*1,IF(MID(B11,1,3)="gap", 2,IF(MID(B11,1,3)="pri",4,99)))</f>
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <f>D11+C11</f>
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>0.2</v>
-      </c>
-      <c r="G11">
-        <v>0.05</v>
-      </c>
-      <c r="H11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <f>IF(MID(B12,1,3)="lag",MID(B12,4,1)*1,IF(MID(B12,1,3)="gap", 2,IF(MID(B12,1,3)="pri",4,99)))</f>
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <f>D12+C12</f>
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>0.2</v>
-      </c>
-      <c r="G12">
-        <v>0.05</v>
-      </c>
-      <c r="H12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <f>IF(MID(B13,1,3)="lag",MID(B13,4,1)*1,IF(MID(B13,1,3)="gap", 2,IF(MID(B13,1,3)="pri",4,99)))</f>
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <f>D13+C13</f>
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>0.2</v>
-      </c>
-      <c r="G13">
-        <v>0.05</v>
-      </c>
-      <c r="H13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <f>IF(MID(B14,1,3)="lag",MID(B14,4,1)*1,IF(MID(B14,1,3)="gap", 2,IF(MID(B14,1,3)="pri",4,99)))</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <f>D14+C14</f>
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>0.2</v>
-      </c>
-      <c r="G14">
-        <v>0.05</v>
-      </c>
-      <c r="H14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <f>IF(MID(B15,1,3)="lag",MID(B15,4,1)*1,IF(MID(B15,1,3)="gap", 2,IF(MID(B15,1,3)="pri",4,99)))</f>
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <f>D15+C15</f>
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>0.2</v>
-      </c>
-      <c r="G15">
-        <v>0.05</v>
-      </c>
-      <c r="H15">
         <v>0.5</v>
       </c>
     </row>

--- a/conditionAB.xlsx
+++ b/conditionAB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee\Documents\GitHub\AB_pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D87FF9-A322-4CD5-98FF-C039B59AD450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B72F53-F267-4D05-8F95-F7F23E96B8CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="1485" windowWidth="14400" windowHeight="7365" xr2:uid="{4E428DA1-F14D-4CED-9014-3DBABD4864E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>stimLen</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>skipProb</t>
+  </si>
+  <si>
+    <t>lag4</t>
+  </si>
+  <si>
+    <t>lag7</t>
+  </si>
+  <si>
+    <t>lag1</t>
+  </si>
+  <si>
+    <t>lag2</t>
+  </si>
+  <si>
+    <t>lag3</t>
+  </si>
+  <si>
+    <t>lag5</t>
   </si>
 </sst>
 </file>
@@ -406,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540AB904-93F0-4682-B6FA-4652E04E7959}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +486,370 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C15" si="0">IF(MID(B3,1,3)="lag",MID(B3,4,1)*1,IF(MID(B3,1,3)="gap", 2,IF(MID(B3,1,3)="pri",4,99)))</f>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="1">D3+C3</f>
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>0.05</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>0.05</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0.2</v>
+      </c>
+      <c r="G6">
+        <v>0.05</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <v>0.05</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>0.05</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10">
+        <v>0.05</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>0.05</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>0.2</v>
+      </c>
+      <c r="G12">
+        <v>0.05</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
+        <v>0.05</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <v>0.05</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>0.05</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/conditionAB.xlsx
+++ b/conditionAB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee\Documents\GitHub\AB_pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B72F53-F267-4D05-8F95-F7F23E96B8CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8B7841-BDFC-410C-9E19-54A61E1CE413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="1485" windowWidth="14400" windowHeight="7365" xr2:uid="{4E428DA1-F14D-4CED-9014-3DBABD4864E5}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,14 +494,14 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C15" si="0">IF(MID(B3,1,3)="lag",MID(B3,4,1)*1,IF(MID(B3,1,3)="gap", 2,IF(MID(B3,1,3)="pri",4,99)))</f>
+        <f>IF(MID(B3,1,3)="lag",MID(B3,4,1)*1,IF(MID(B3,1,3)="gap", 2,IF(MID(B3,1,3)="pri",4,99)))</f>
         <v>4</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E15" si="1">D3+C3</f>
+        <f>D3+C3</f>
         <v>7</v>
       </c>
       <c r="F3">
@@ -522,14 +522,14 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>IF(MID(B4,1,3)="lag",MID(B4,4,1)*1,IF(MID(B4,1,3)="gap", 2,IF(MID(B4,1,3)="pri",4,99)))</f>
         <v>7</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f>D4+C4</f>
         <v>11</v>
       </c>
       <c r="F4">
@@ -550,14 +550,14 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>IF(MID(B5,1,3)="lag",MID(B5,4,1)*1,IF(MID(B5,1,3)="gap", 2,IF(MID(B5,1,3)="pri",4,99)))</f>
         <v>1</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f>D5+C5</f>
         <v>4</v>
       </c>
       <c r="F5">
@@ -578,14 +578,14 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>IF(MID(B6,1,3)="lag",MID(B6,4,1)*1,IF(MID(B6,1,3)="gap", 2,IF(MID(B6,1,3)="pri",4,99)))</f>
         <v>2</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f>D6+C6</f>
         <v>5</v>
       </c>
       <c r="F6">
@@ -606,14 +606,14 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>IF(MID(B7,1,3)="lag",MID(B7,4,1)*1,IF(MID(B7,1,3)="gap", 2,IF(MID(B7,1,3)="pri",4,99)))</f>
         <v>3</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f>D7+C7</f>
         <v>6</v>
       </c>
       <c r="F7">
@@ -634,14 +634,14 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>IF(MID(B8,1,3)="lag",MID(B8,4,1)*1,IF(MID(B8,1,3)="gap", 2,IF(MID(B8,1,3)="pri",4,99)))</f>
         <v>5</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f>D8+C8</f>
         <v>9</v>
       </c>
       <c r="F8">
@@ -662,14 +662,14 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>IF(MID(B9,1,3)="lag",MID(B9,4,1)*1,IF(MID(B9,1,3)="gap", 2,IF(MID(B9,1,3)="pri",4,99)))</f>
         <v>7</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f>D9+C9</f>
         <v>12</v>
       </c>
       <c r="F9">
@@ -690,14 +690,14 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>IF(MID(B10,1,3)="lag",MID(B10,4,1)*1,IF(MID(B10,1,3)="gap", 2,IF(MID(B10,1,3)="pri",4,99)))</f>
         <v>6</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f>D10+C10</f>
         <v>11</v>
       </c>
       <c r="F10">
@@ -718,14 +718,14 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>IF(MID(B11,1,3)="lag",MID(B11,4,1)*1,IF(MID(B11,1,3)="gap", 2,IF(MID(B11,1,3)="pri",4,99)))</f>
         <v>2</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f>D11+C11</f>
         <v>7</v>
       </c>
       <c r="F11">
@@ -746,14 +746,14 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>IF(MID(B12,1,3)="lag",MID(B12,4,1)*1,IF(MID(B12,1,3)="gap", 2,IF(MID(B12,1,3)="pri",4,99)))</f>
         <v>3</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f>D12+C12</f>
         <v>8</v>
       </c>
       <c r="F12">
@@ -774,14 +774,14 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>IF(MID(B13,1,3)="lag",MID(B13,4,1)*1,IF(MID(B13,1,3)="gap", 2,IF(MID(B13,1,3)="pri",4,99)))</f>
         <v>5</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f>D13+C13</f>
         <v>9</v>
       </c>
       <c r="F13">
@@ -802,14 +802,14 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>IF(MID(B14,1,3)="lag",MID(B14,4,1)*1,IF(MID(B14,1,3)="gap", 2,IF(MID(B14,1,3)="pri",4,99)))</f>
         <v>1</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f>D14+C14</f>
         <v>5</v>
       </c>
       <c r="F14">
@@ -830,14 +830,14 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>IF(MID(B15,1,3)="lag",MID(B15,4,1)*1,IF(MID(B15,1,3)="gap", 2,IF(MID(B15,1,3)="pri",4,99)))</f>
         <v>4</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f>D15+C15</f>
         <v>8</v>
       </c>
       <c r="F15">

--- a/conditionAB.xlsx
+++ b/conditionAB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee\Documents\GitHub\AB_pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8B7841-BDFC-410C-9E19-54A61E1CE413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C472EAF-583C-4001-AD92-2E8DF430F438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="1485" windowWidth="14400" windowHeight="7365" xr2:uid="{4E428DA1-F14D-4CED-9014-3DBABD4864E5}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,14 +466,14 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <f>IF(MID(B2,1,3)="lag",MID(B2,4,1)*1,IF(MID(B2,1,3)="gap", 2,IF(MID(B2,1,3)="pri",4,99)))</f>
+        <f t="shared" ref="C2:C15" si="0">IF(MID(B2,1,3)="lag",MID(B2,4,1)*1,IF(MID(B2,1,3)="gap", 2,IF(MID(B2,1,3)="pri",4,99)))</f>
         <v>6</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <f>D2+C2</f>
+        <f t="shared" ref="E2:E15" si="1">D2+C2</f>
         <v>11</v>
       </c>
       <c r="F2">
@@ -494,14 +494,14 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <f>IF(MID(B3,1,3)="lag",MID(B3,4,1)*1,IF(MID(B3,1,3)="gap", 2,IF(MID(B3,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <f>D3+C3</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F3">
@@ -522,14 +522,14 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <f>IF(MID(B4,1,3)="lag",MID(B4,4,1)*1,IF(MID(B4,1,3)="gap", 2,IF(MID(B4,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <f>D4+C4</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F4">
@@ -550,14 +550,14 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <f>IF(MID(B5,1,3)="lag",MID(B5,4,1)*1,IF(MID(B5,1,3)="gap", 2,IF(MID(B5,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <f>D5+C5</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F5">
@@ -578,14 +578,14 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <f>IF(MID(B6,1,3)="lag",MID(B6,4,1)*1,IF(MID(B6,1,3)="gap", 2,IF(MID(B6,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
-        <f>D6+C6</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F6">
@@ -606,14 +606,14 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <f>IF(MID(B7,1,3)="lag",MID(B7,4,1)*1,IF(MID(B7,1,3)="gap", 2,IF(MID(B7,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <f>D7+C7</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F7">
@@ -634,14 +634,14 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <f>IF(MID(B8,1,3)="lag",MID(B8,4,1)*1,IF(MID(B8,1,3)="gap", 2,IF(MID(B8,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <f>D8+C8</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F8">
@@ -662,14 +662,14 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <f>IF(MID(B9,1,3)="lag",MID(B9,4,1)*1,IF(MID(B9,1,3)="gap", 2,IF(MID(B9,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <f>D9+C9</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F9">
@@ -690,14 +690,14 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <f>IF(MID(B10,1,3)="lag",MID(B10,4,1)*1,IF(MID(B10,1,3)="gap", 2,IF(MID(B10,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
-        <f>D10+C10</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F10">
@@ -718,14 +718,14 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <f>IF(MID(B11,1,3)="lag",MID(B11,4,1)*1,IF(MID(B11,1,3)="gap", 2,IF(MID(B11,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <f>D11+C11</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F11">
@@ -746,14 +746,14 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <f>IF(MID(B12,1,3)="lag",MID(B12,4,1)*1,IF(MID(B12,1,3)="gap", 2,IF(MID(B12,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12">
-        <f>D12+C12</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F12">
@@ -774,14 +774,14 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <f>IF(MID(B13,1,3)="lag",MID(B13,4,1)*1,IF(MID(B13,1,3)="gap", 2,IF(MID(B13,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13">
-        <f>D13+C13</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F13">
@@ -802,14 +802,14 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <f>IF(MID(B14,1,3)="lag",MID(B14,4,1)*1,IF(MID(B14,1,3)="gap", 2,IF(MID(B14,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14">
-        <f>D14+C14</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F14">
@@ -830,14 +830,14 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <f>IF(MID(B15,1,3)="lag",MID(B15,4,1)*1,IF(MID(B15,1,3)="gap", 2,IF(MID(B15,1,3)="pri",4,99)))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15">
-        <f>D15+C15</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F15">

--- a/conditionAB.xlsx
+++ b/conditionAB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee\Documents\GitHub\AB_pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C472EAF-583C-4001-AD92-2E8DF430F438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A9332B-6130-4AD2-A9B8-881F018F1E82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="1485" windowWidth="14400" windowHeight="7365" xr2:uid="{4E428DA1-F14D-4CED-9014-3DBABD4864E5}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
